--- a/Doc/融创接口/融创接口相关文档/PI/CAD设计协同项目PI&ESB接口需求清单.xlsx
+++ b/Doc/融创接口/融创接口相关文档/PI/CAD设计协同项目PI&ESB接口需求清单.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA81C882-36D8-4575-9943-97A411D27F60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D54235F-49FC-41CE-AFF7-248F9FA0250E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-492" yWindow="2520" windowWidth="17280" windowHeight="10716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="44">
   <si>
     <t>序号</t>
   </si>
@@ -638,26 +638,26 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="58.25" customWidth="1"/>
+    <col min="8" max="8" width="58.21875" customWidth="1"/>
     <col min="9" max="9" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="5.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.21875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:15" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="B1" s="10" t="s">
         <v>24</v>
       </c>
@@ -675,7 +675,7 @@
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
     </row>
-    <row r="2" spans="2:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -719,7 +719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -757,7 +757,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -795,7 +795,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -833,7 +833,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="G6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -871,7 +871,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -909,7 +909,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>6</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="8"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>7</v>
       </c>
@@ -985,7 +985,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="8"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>8</v>
       </c>
@@ -1023,7 +1023,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="8"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>9</v>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="G11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="I11" s="5" t="s">
@@ -1061,7 +1061,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>10</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="8"/>
     </row>
-    <row r="13" spans="2:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>11</v>
       </c>
@@ -1116,7 +1116,7 @@
       <c r="G13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -1139,13 +1139,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H16" s="6"/>
     </row>
   </sheetData>
